--- a/Data/Output/Bitacora_de_Envios.xlsx
+++ b/Data/Output/Bitacora_de_Envios.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Enviados Beecker" sheetId="1" r:id="rId1"/>
-    <sheet name="Enviados Talento" sheetId="2" r:id="rId2"/>
+    <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
+    <sheet name="Bitacora 25.02.2020" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,19 +25,337 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">Recibos Enviados </t>
-  </si>
-  <si>
-    <t>Recibos NO Enviados</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="108">
+  <si>
+    <t>Archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatus Correo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aida Monserrat Rodriguez Alvarado</t>
+  </si>
+  <si>
+    <t>No Encontrado</t>
+  </si>
+  <si>
+    <t>No Enviado</t>
+  </si>
+  <si>
+    <t>Alan Eduardo Vega Mora</t>
+  </si>
+  <si>
+    <t>Encontrado</t>
+  </si>
+  <si>
+    <t>Enviado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alberto Perez Diaz</t>
+  </si>
+  <si>
+    <t>Alberto Vazquez Chiquillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alejandro Alquicira Salas</t>
+  </si>
+  <si>
+    <t>Alfredo Bobadilla Gutierrez</t>
+  </si>
+  <si>
+    <t>Angelica Jhovana Moreno Jimenez</t>
+  </si>
+  <si>
+    <t>Ariana Barrios Soriano</t>
+  </si>
+  <si>
+    <t>Arturo Magallanes Prado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bernabe Garcia Adame</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brandon Armando Gonzalez Flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brandon Daniel Sotelo Moreno</t>
+  </si>
+  <si>
+    <t>Bryan Alberto Gonzalez Rodriguez</t>
+  </si>
+  <si>
+    <t>Carlos Abraham Diaz Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carlos Daniel Hernandez Alonso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carlos Garet Garcia Zaragoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chrystian Jesus Castillo Pacheco</t>
+  </si>
+  <si>
+    <t>Cinthya Cruz Herrera</t>
+  </si>
+  <si>
+    <t>Cristian Martinez Acosta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cynthia Itzel Betancourt Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> David Eduardo Quevedo Torres</t>
+  </si>
+  <si>
+    <t>David Israel Armendariz Navarrete</t>
+  </si>
+  <si>
+    <t>David Sanchez Martinez</t>
+  </si>
+  <si>
+    <t>Diana Laura Gutierrez Alvarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eduardo Vazquez Fernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elias Ramses Villanueva Aguero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erick Jesús Dublán Limón</t>
+  </si>
+  <si>
+    <t>Erick Jovani Sanchez Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erick Roger Rogel Valentin</t>
+  </si>
+  <si>
+    <t>Erika Perez Dominguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fabiola Ramirez Bartolo</t>
+  </si>
+  <si>
+    <t>Fernando Ariel Leibowich Beker</t>
+  </si>
+  <si>
+    <t>Fernando Elizalde Espinosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Francia Gabriela Segura Sanchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Francia Isela Luna Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geovanni Mendez Hernández</t>
+  </si>
+  <si>
+    <t>Gerardo Cruz Santiago</t>
+  </si>
+  <si>
+    <t>Giovanni Garcia Ferrari</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giovanni Gomez Morelos</t>
+  </si>
+  <si>
+    <t>Gloria Ramos Jimenez</t>
+  </si>
+  <si>
+    <t>Hatziry Angelica Gonzalez Rosas</t>
+  </si>
+  <si>
+    <t>Hector Adrian Rosado Huicab</t>
+  </si>
+  <si>
+    <t>Hector Misael Lopez Franco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hector Santiago Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hugo Bahena Ocampo</t>
+  </si>
+  <si>
+    <t>Humberto Carreto Gonzalez</t>
+  </si>
+  <si>
+    <t>Isayd Ubaldo Mejia Alba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isvi Jazed Acuña Zamora</t>
+  </si>
+  <si>
+    <t>Ivan Santana Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ivan Ulises Barragan Valdovinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jasiel Mephiboset Lagunas Arango</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Javier Angel Casiano Millan</t>
+  </si>
+  <si>
+    <t>Javier Guillen Turcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesus Arturo Dorantes Cabrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesus Guadalupe Flores Navarrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jonathan Obed Reyes Avila</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jonathan Piza Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jorge Alberto Gomez Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jorge Andres Barrios Popoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jose Antonio Torres Cano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jose Daniel Nolasco Guerrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jose Manuel Torres Gonzalez</t>
+  </si>
+  <si>
+    <t>Juan Carlos Mendoza Suastegui</t>
+  </si>
+  <si>
+    <t>Juan Daniel Esparza Aguilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juan Jose Martinez Mejia</t>
+  </si>
+  <si>
+    <t>Juan Manuel Flores Romero</t>
+  </si>
+  <si>
+    <t>Julio Cesar Rodriguez Rodriguez</t>
+  </si>
+  <si>
+    <t>Karina Tovar Ramirez</t>
+  </si>
+  <si>
+    <t>Keyla Genoveva Garcia Legaspi</t>
+  </si>
+  <si>
+    <t>Liliana Contreras Valdez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lizbeth Beristain Buendia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lizeth Cristina Mejia Aldana</t>
+  </si>
+  <si>
+    <t>Luis Dario Mota Garcia</t>
+  </si>
+  <si>
+    <t>Luis Enrique Garcia Rivera</t>
+  </si>
+  <si>
+    <t>Luis Felipe Ramos Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luis Fernando Ramirez Hernandez</t>
+  </si>
+  <si>
+    <t>Luis Giovanny Alcantara Lubiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luis Margarito Gonzalez Casasanero</t>
+  </si>
+  <si>
+    <t>Magaly Diana Leana Fierros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mercedes Ollicinhuat Arontes Cadena</t>
+  </si>
+  <si>
+    <t>Miguel Angel Fernandez Moreno</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miguel Angel Policarpo Bacilo</t>
+  </si>
+  <si>
+    <t>Miguel Angel Velazquez Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miguel Salvador Arellano Castillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montserrat Reyes Garces</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nicky Hernandez Villa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Omar Alejandro Cervantes Roman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Omar Cruz Morales</t>
+  </si>
+  <si>
+    <t>Omar Israel Martinez Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Omar Miguel Velazquez Mendoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pablo Reyna Angel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ramon Alberto Gonzalez Quevedo</t>
+  </si>
+  <si>
+    <t>Richard Christopher Rodriguez Alvarado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samantha Vanessa Silva Rojas</t>
+  </si>
+  <si>
+    <t>Samuel Sobrevilla Bustamante</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sheila Guadalupe Campos Pantaleon</t>
+  </si>
+  <si>
+    <t>Tanya Zarahi Cabrera Palacios</t>
+  </si>
+  <si>
+    <t>Tere Vianney Sanchez Hernandez</t>
+  </si>
+  <si>
+    <t>Victor Jose de Jesus Juarez Gutierrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victor Santiago Ruiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yatziri Esmeralda Barrera Mora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatus Archivo Respecto a la lista </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +363,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6600CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,15 +397,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6600CC"/>
+      <color rgb="FF800080"/>
+      <color rgb="FF9933FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -349,54 +688,1175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="43.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="255" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="255" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>